--- a/biology/Médecine/Hôpital_de_Sainte-Thérèse/Hôpital_de_Sainte-Thérèse.xlsx
+++ b/biology/Médecine/Hôpital_de_Sainte-Thérèse/Hôpital_de_Sainte-Thérèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Sainte-Th%C3%A9r%C3%A8se</t>
+          <t>Hôpital_de_Sainte-Thérèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’Hôpital de Sainte-Thérèse[1] (chinois : 聖德肋撒醫院 ; anglais : St. Teresa’s Hospital) est un hôpital privé et catholique situé à Hong Kong, Chine. L’hôpital ayant été fondé par les Sœurs de Saint-Paul de Chartres, une congrégation française, il est surnommé « l’hôpital français de Kowloon »[2].
+L’Hôpital de Sainte-Thérèse (chinois : 聖德肋撒醫院 ; anglais : St. Teresa’s Hospital) est un hôpital privé et catholique situé à Hong Kong, Chine. L’hôpital ayant été fondé par les Sœurs de Saint-Paul de Chartres, une congrégation française, il est surnommé « l’hôpital français de Kowloon ».
 </t>
         </is>
       </c>
